--- a/pred_ohlcv/54_21/2019-10-26 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 AE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2662.829299999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3462.829299999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2151.128799999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2395.358799999999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2395.358799999999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1788.358799999999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>72.03039999999896</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>234.850399999999</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>278.760399999999</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>223.330399999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>156.077499999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>156.077499999999</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>156.077499999999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>156.077499999999</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2154.384499999999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2081.719599999999</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2081.719599999999</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-636.221700000001</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-635.221700000001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4005.595100000001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-3773.089700000001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-3773.089700000001</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3772.089700000001</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-3772.089700000001</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3772.089700000001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3772.089700000001</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-3772.089700000001</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3764.739700000001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3764.739700000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3764.739700000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-6019.580500000001</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-20006.8336</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-20802.2901</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-27217.0444</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-22957.2237</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-21647.2237</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-21647.2237</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-21336.2237</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-28872.8135</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-19463.7479</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-19463.7479</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-20994.8177</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-20224.2863</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-20224.2863</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-20504.2863</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-20784.2863</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-22094.1117</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-21954.1117</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-21906.6905</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-22046.6905</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-22036.6905</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-22101.6905</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-24002.6905</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-32075.6819</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-32075.6819</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-32075.6819</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-32073.6819</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-33033.98190000001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-31767.18650000001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-32371.53190000001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-35068.1539</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-35068.1539</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-35208.1539</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-35207.1539</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-36577.5841</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-30879.2386</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 AE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2662.829299999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3462.829299999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2151.128799999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2395.358799999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2395.358799999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1788.358799999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>223.330399999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>156.077499999999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2081.719599999999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2081.719599999999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-636.221700000001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-635.221700000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4005.595100000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3764.739700000001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3764.739700000001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-20802.2901</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-27217.0444</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-22957.2237</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-21647.2237</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-21647.2237</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-21336.2237</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-28869.9244</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-28872.8135</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-19463.7479</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-20994.8177</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-20224.2863</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-20224.2863</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-20504.2863</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-20784.2863</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-22279.1117</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-22094.1117</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-21954.1117</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-21906.6905</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-22046.6905</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-22036.6905</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-22101.6905</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-24002.6905</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-24002.6905</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-32075.6819</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-32075.6819</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-31895.6819</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-32075.6819</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-32073.6819</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-33033.98190000001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-31767.18650000001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-32371.53190000001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-34087.6613</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-34270.499</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-34270.499</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-34688.1539</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-35068.1539</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-35068.1539</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-35068.1539</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-35068.1539</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-35208.1539</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-35207.1539</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-36577.5841</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-30879.2386</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
